--- a/wwwroot/reports/VFW-MTN-001-1.xlsx
+++ b/wwwroot/reports/VFW-MTN-001-1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>สรุปรายการขออนุมัติจำหน่ายยกเลิกใช้งานเครื่องมือ  เครื่องจักร   ประจำเดือน _________</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>Remark</t>
+  </si>
+  <si>
+    <t>อายุการใช้งาน</t>
   </si>
 </sst>
 </file>
@@ -259,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -279,6 +282,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -324,9 +330,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -709,84 +713,85 @@
   </sheetPr>
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="205" zoomScaleNormal="100" zoomScaleSheetLayoutView="205" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="22" customWidth="1"/>
+    <col min="1" max="1" width="5.5" style="7" customWidth="1"/>
     <col min="5" max="5" width="8.296875" customWidth="1"/>
     <col min="7" max="7" width="9.796875" customWidth="1"/>
     <col min="8" max="9" width="10.8984375" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
     <col min="11" max="11" width="10.5" customWidth="1"/>
     <col min="12" max="12" width="9" customWidth="1"/>
-    <col min="14" max="14" width="10.59765625" customWidth="1"/>
+    <col min="14" max="14" width="12.796875" customWidth="1"/>
+    <col min="15" max="15" width="12.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7"/>
-      <c r="B1" s="16" t="s">
+      <c r="A1" s="8"/>
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="18"/>
     </row>
     <row r="2" spans="1:15" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="19"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="20"/>
     </row>
     <row r="3" spans="1:15" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="21"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="22"/>
     </row>
     <row r="4" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
       <c r="E4" s="2" t="s">
         <v>3</v>
       </c>
@@ -811,21 +816,23 @@
       <c r="L4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="M4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="11"/>
-      <c r="O4" s="12"/>
+      <c r="O4" s="13"/>
     </row>
     <row r="5" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="16"/>
       <c r="E5" s="5" t="s">
         <v>14</v>
       </c>
@@ -850,23 +857,23 @@
       <c r="L5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="M5" s="23"/>
+      <c r="N5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="N5" s="14"/>
-      <c r="O5" s="15"/>
+      <c r="O5" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="M5:O5"/>
     <mergeCell ref="B1:O3"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="96" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="92" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;RFrom. VFW - MTN - 001  Rv.0</oddFooter>
   </headerFooter>
